--- a/numero_cadernos3.xlsx
+++ b/numero_cadernos3.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,7 +403,7 @@
         <v>43831</v>
       </c>
       <c r="C2">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -425,7 +425,7 @@
         <v>43891</v>
       </c>
       <c r="C4">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -458,7 +458,7 @@
         <v>43983</v>
       </c>
       <c r="C7">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -469,7 +469,7 @@
         <v>44013</v>
       </c>
       <c r="C8">
-        <v>2759</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -480,7 +480,7 @@
         <v>44044</v>
       </c>
       <c r="C9">
-        <v>3028</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -535,7 +535,7 @@
         <v>44197</v>
       </c>
       <c r="C14">
-        <v>4749</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -546,7 +546,7 @@
         <v>44228</v>
       </c>
       <c r="C15">
-        <v>9184</v>
+        <v>9175</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -568,7 +568,7 @@
         <v>44287</v>
       </c>
       <c r="C17">
-        <v>1380</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -579,7 +579,7 @@
         <v>44317</v>
       </c>
       <c r="C18">
-        <v>2064</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -590,7 +590,7 @@
         <v>44348</v>
       </c>
       <c r="C19">
-        <v>1573</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -601,7 +601,18 @@
         <v>44378</v>
       </c>
       <c r="C20">
-        <v>589</v>
+        <v>856</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44409</v>
+      </c>
+      <c r="C21">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
